--- a/data/trans_orig/P39B_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>9634</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5170</v>
+        <v>5183</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16816</v>
+        <v>17740</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.01809338590021924</v>
+        <v>0.01809338590021925</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009708955142179412</v>
+        <v>0.009732993231845946</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03158058112380871</v>
+        <v>0.03331605735745419</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -762,19 +762,19 @@
         <v>11677</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7527</v>
+        <v>7122</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18477</v>
+        <v>18044</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01539492951789996</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009924212149031806</v>
+        <v>0.009390199070979986</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02436054438663401</v>
+        <v>0.02378935684061005</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -783,19 +783,19 @@
         <v>21311</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14892</v>
+        <v>14297</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31090</v>
+        <v>30803</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01650793924377596</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01153528304466552</v>
+        <v>0.0110747687385664</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0240826922191474</v>
+        <v>0.02385999625337478</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>9407</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4525</v>
+        <v>4834</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16372</v>
+        <v>16585</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.01766588244860049</v>
+        <v>0.0176658824486005</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008497945056739096</v>
+        <v>0.009077810549594214</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.030746261735149</v>
+        <v>0.03114731095124712</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -833,19 +833,19 @@
         <v>14824</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9723</v>
+        <v>10077</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21402</v>
+        <v>21449</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01954407349259967</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01281816148544644</v>
+        <v>0.01328578109248374</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02821638992974814</v>
+        <v>0.02827771879031657</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>39</v>
@@ -854,19 +854,19 @@
         <v>24231</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17562</v>
+        <v>17093</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>32930</v>
+        <v>32720</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.01876939174761347</v>
+        <v>0.01876939174761346</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01360375755049952</v>
+        <v>0.013240116114129</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02550761724711268</v>
+        <v>0.02534563044540047</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>448545</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>429149</v>
+        <v>431791</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>463199</v>
+        <v>463313</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8423748160243063</v>
+        <v>0.8423748160243065</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8059476133093899</v>
+        <v>0.8109094715865947</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8698942163912962</v>
+        <v>0.8701086721682056</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1134</v>
@@ -904,19 +904,19 @@
         <v>665638</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>650191</v>
+        <v>650210</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>677555</v>
+        <v>678174</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.8775767093499697</v>
+        <v>0.8775767093499696</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8572108907045434</v>
+        <v>0.8572363569970836</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8932874462754236</v>
+        <v>0.8941038996438068</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1655</v>
@@ -925,19 +925,19 @@
         <v>1114183</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1092948</v>
+        <v>1090602</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1133349</v>
+        <v>1135224</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8630572789461928</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8466085787337327</v>
+        <v>0.8447914930553132</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8779037066300435</v>
+        <v>0.8793557230463371</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>47580</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36392</v>
+        <v>36118</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61815</v>
+        <v>60155</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08935663798028534</v>
+        <v>0.08935663798028536</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0683437977516296</v>
+        <v>0.06783012885380919</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1160891071099015</v>
+        <v>0.112971696665824</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>98</v>
@@ -975,19 +975,19 @@
         <v>49593</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40783</v>
+        <v>39936</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60946</v>
+        <v>62063</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06538347007961719</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0537677637142339</v>
+        <v>0.05265097602544216</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08035162327668938</v>
+        <v>0.08182384950213015</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>164</v>
@@ -996,19 +996,19 @@
         <v>97173</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>82271</v>
+        <v>81167</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>113313</v>
+        <v>114145</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07527148205873575</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06372810592571519</v>
+        <v>0.06287271172889185</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08777335715029126</v>
+        <v>0.08841816084446492</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>17310</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11254</v>
+        <v>11143</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26396</v>
+        <v>26148</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03250927764658844</v>
+        <v>0.03250927764658845</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02113469054047645</v>
+        <v>0.02092628637710502</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0495721868864003</v>
+        <v>0.04910611172487703</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>26</v>
@@ -1046,19 +1046,19 @@
         <v>16763</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11537</v>
+        <v>10711</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25296</v>
+        <v>25485</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02210081755991349</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01521092404746657</v>
+        <v>0.01412144934551169</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03334998483726626</v>
+        <v>0.03359946671970899</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>48</v>
@@ -1067,19 +1067,19 @@
         <v>34074</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>24483</v>
+        <v>25091</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>45184</v>
+        <v>45138</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02639390800368212</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01896502417299337</v>
+        <v>0.01943559191838429</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03500034124908299</v>
+        <v>0.03496454899262662</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>11661</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6449</v>
+        <v>6550</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20319</v>
+        <v>20719</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005306173018984207</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002934801666611234</v>
+        <v>0.002980657738115007</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.00924623568796424</v>
+        <v>0.009428314210582218</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -1192,19 +1192,19 @@
         <v>18284</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12235</v>
+        <v>12053</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27330</v>
+        <v>26987</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008553676974931026</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005723987822926079</v>
+        <v>0.005638462150746132</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01278576498588213</v>
+        <v>0.01262507378678795</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -1213,19 +1213,19 @@
         <v>29945</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21254</v>
+        <v>21349</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41077</v>
+        <v>41441</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006907447914794276</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004902816027433618</v>
+        <v>0.004924581874433135</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009475474080028615</v>
+        <v>0.009559309901595045</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>21021</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12602</v>
+        <v>12133</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>36129</v>
+        <v>37110</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.00956555677962985</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005734615700595838</v>
+        <v>0.005521089088817686</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01644033488011647</v>
+        <v>0.01688667661919675</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -1263,19 +1263,19 @@
         <v>20574</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13257</v>
+        <v>13200</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>31864</v>
+        <v>31420</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.009625218930496659</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.006202134679970783</v>
+        <v>0.006175121796295364</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01490686540906095</v>
+        <v>0.01469889588531966</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>43</v>
@@ -1284,19 +1284,19 @@
         <v>41595</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29178</v>
+        <v>29256</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>58390</v>
+        <v>60128</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.009594974912974417</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00673060633402673</v>
+        <v>0.006748625984886436</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01346905673630505</v>
+        <v>0.01386994467496765</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>2065939</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2036417</v>
+        <v>2038397</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2089433</v>
+        <v>2088769</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9401047863226257</v>
+        <v>0.9401047863226256</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9266711799784644</v>
+        <v>0.927571919347149</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9507959170556297</v>
+        <v>0.950493655182571</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2746</v>
@@ -1334,19 +1334,19 @@
         <v>2035549</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2016279</v>
+        <v>2014029</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>2053023</v>
+        <v>2052807</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9522801351335883</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9432651177033882</v>
+        <v>0.9422124523943093</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9604548421798009</v>
+        <v>0.9603536412566922</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4594</v>
@@ -1355,19 +1355,19 @@
         <v>4101488</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4067503</v>
+        <v>4070045</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4130773</v>
+        <v>4130902</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.9461081909876221</v>
+        <v>0.946108190987622</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9382687124236591</v>
+        <v>0.9388551346799837</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9528634859131292</v>
+        <v>0.9528932981740367</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>65085</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48093</v>
+        <v>49972</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84820</v>
+        <v>83656</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02961711794952243</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02188487417069569</v>
+        <v>0.02273967470188443</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03859751969436329</v>
+        <v>0.03806746919363352</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -1405,19 +1405,19 @@
         <v>50802</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38146</v>
+        <v>39179</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65584</v>
+        <v>66575</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02376663673637219</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01784562438421048</v>
+        <v>0.01832882897595551</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03068169882866721</v>
+        <v>0.03114565651816309</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>127</v>
@@ -1426,19 +1426,19 @@
         <v>115888</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>93596</v>
+        <v>97390</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>138997</v>
+        <v>141278</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02673237051823114</v>
+        <v>0.02673237051823113</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02159020509350302</v>
+        <v>0.02246528729410099</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03206303045501692</v>
+        <v>0.03258915859216584</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>33856</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>22163</v>
+        <v>23049</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49977</v>
+        <v>50849</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01540636592923774</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01008522112695922</v>
+        <v>0.0104884237114269</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02274217045715287</v>
+        <v>0.02313898876237536</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -1476,19 +1476,19 @@
         <v>12343</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7237</v>
+        <v>7335</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21286</v>
+        <v>20576</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005774332224611688</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003385625659519496</v>
+        <v>0.003431361110608457</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009958272842854223</v>
+        <v>0.009625900968451962</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>46</v>
@@ -1497,19 +1497,19 @@
         <v>46199</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>32483</v>
+        <v>32840</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>63269</v>
+        <v>63625</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01065701566637798</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007493090536299992</v>
+        <v>0.007575241556800742</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01459445901160379</v>
+        <v>0.01467659263772038</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>8198</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3598</v>
+        <v>3821</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15981</v>
+        <v>17014</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.01158225920352405</v>
+        <v>0.01158225920352404</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005083932570833615</v>
+        <v>0.005398134335990785</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0225795269871037</v>
+        <v>0.02403875980281196</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1622,19 +1622,19 @@
         <v>7144</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3496</v>
+        <v>3717</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12619</v>
+        <v>12947</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.009798552544584662</v>
+        <v>0.009798552544584661</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004795732334555952</v>
+        <v>0.005098302087260224</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01730914127434664</v>
+        <v>0.0177590151837751</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -1643,19 +1643,19 @@
         <v>15341</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8948</v>
+        <v>7904</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24299</v>
+        <v>23548</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01067720693931252</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006227384257082126</v>
+        <v>0.005500703545706804</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01691178331143039</v>
+        <v>0.0163888802490593</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>3589</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1102</v>
+        <v>1113</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9667</v>
+        <v>10693</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.005070259363107554</v>
+        <v>0.005070259363107556</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001557242430133783</v>
+        <v>0.001572603057416422</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01365837949529027</v>
+        <v>0.01510700426198217</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -1693,19 +1693,19 @@
         <v>6083</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2636</v>
+        <v>2304</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13748</v>
+        <v>13395</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.008344203582930849</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003615295695341443</v>
+        <v>0.003160087153084181</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01885794240991097</v>
+        <v>0.0183727930648243</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -1714,19 +1714,19 @@
         <v>9672</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4468</v>
+        <v>4835</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17261</v>
+        <v>18106</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.006731457752541845</v>
+        <v>0.006731457752541844</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003109622885551412</v>
+        <v>0.003364692698345009</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01201341401146997</v>
+        <v>0.01260102984537541</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>682052</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>668725</v>
+        <v>667953</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>690554</v>
+        <v>690345</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9636397790555993</v>
+        <v>0.9636397790555994</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9448116489695527</v>
+        <v>0.9437200231010181</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9756525779891365</v>
+        <v>0.9753565593742912</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>965</v>
@@ -1764,19 +1764,19 @@
         <v>705411</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>693496</v>
+        <v>693937</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>713660</v>
+        <v>713690</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9675745004832502</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9512307225963726</v>
+        <v>0.9518366725859676</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.978888524254775</v>
+        <v>0.9789296422574529</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1616</v>
@@ -1785,19 +1785,19 @@
         <v>1387463</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1372697</v>
+        <v>1371278</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1400127</v>
+        <v>1399892</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9656362556170844</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9553593821239325</v>
+        <v>0.9543721111043447</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9744504624968745</v>
+        <v>0.9742864008499657</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>8954</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3944</v>
+        <v>3907</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18985</v>
+        <v>20239</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01265003496213006</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00557186476188673</v>
+        <v>0.005519675560540794</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02682292742739915</v>
+        <v>0.02859526765440477</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1835,19 +1835,19 @@
         <v>2961</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>790</v>
+        <v>819</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6404</v>
+        <v>6653</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004061790999660691</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001083399166467355</v>
+        <v>0.001123964243471329</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.008783670608244616</v>
+        <v>0.009125745551866378</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -1856,19 +1856,19 @@
         <v>11915</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6067</v>
+        <v>6070</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23571</v>
+        <v>22566</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.008292362356671652</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004222142643532084</v>
+        <v>0.004224830505501359</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01640453086198953</v>
+        <v>0.01570558717175814</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>4995</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1868</v>
+        <v>1945</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10044</v>
+        <v>10247</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.007057667415638932</v>
+        <v>0.007057667415638933</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002639636675003987</v>
+        <v>0.002748621231557823</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01419007415362684</v>
+        <v>0.01447702332953498</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -1906,19 +1906,19 @@
         <v>7452</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2887</v>
+        <v>3347</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16093</v>
+        <v>17434</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01022095238957359</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003960331054101817</v>
+        <v>0.004591275106711302</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02207432321337474</v>
+        <v>0.02391332853710904</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -1927,19 +1927,19 @@
         <v>12447</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7318</v>
+        <v>7206</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>22533</v>
+        <v>24337</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.008662717334389707</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005093169027724046</v>
+        <v>0.00501509099033352</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01568208714340169</v>
+        <v>0.01693808514717676</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>29493</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20301</v>
+        <v>20518</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41319</v>
+        <v>41547</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.008578887806161971</v>
+        <v>0.008578887806161973</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005905166738493346</v>
+        <v>0.005968380114379765</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01201878900178564</v>
+        <v>0.01208512223732988</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>54</v>
@@ -2052,19 +2052,19 @@
         <v>37105</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27529</v>
+        <v>27829</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48110</v>
+        <v>48994</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01023546242906138</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007594025145113203</v>
+        <v>0.00767689166034399</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01327146444199588</v>
+        <v>0.01351528383985248</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>85</v>
@@ -2073,19 +2073,19 @@
         <v>66597</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>52709</v>
+        <v>52721</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>81729</v>
+        <v>82383</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.00942913722332101</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007462817841420548</v>
+        <v>0.007464467654455056</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01157157725080376</v>
+        <v>0.0116642000037317</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>34016</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>22347</v>
+        <v>23109</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>51330</v>
+        <v>50979</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.009894695682207506</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.006500185076761602</v>
+        <v>0.006721940789974234</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01493083874593352</v>
+        <v>0.01482882448460652</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>61</v>
@@ -2123,19 +2123,19 @@
         <v>41482</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>31234</v>
+        <v>30296</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>54165</v>
+        <v>54662</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0114429578214747</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.008615953199252731</v>
+        <v>0.008357279645062958</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01494174839859888</v>
+        <v>0.01507870943851366</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>92</v>
@@ -2144,19 +2144,19 @@
         <v>75498</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>60442</v>
+        <v>60607</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>95168</v>
+        <v>93105</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01068935290037574</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.008557618217951894</v>
+        <v>0.008580981430286102</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01347433421108</v>
+        <v>0.01318218172494653</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>3196536</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3163450</v>
+        <v>3162403</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3227358</v>
+        <v>3226514</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9298130574248711</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9201891657852934</v>
+        <v>0.9198843980919902</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9387786575199496</v>
+        <v>0.9385333094348072</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4845</v>
@@ -2194,19 +2194,19 @@
         <v>3406599</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3381663</v>
+        <v>3381042</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>3432947</v>
+        <v>3430231</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9397254827246501</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9328468796896578</v>
+        <v>0.9326756036834963</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9469937636063714</v>
+        <v>0.9462446001454611</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>7865</v>
@@ -2215,19 +2215,19 @@
         <v>6603133</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6561055</v>
+        <v>6561860</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>6646297</v>
+        <v>6642506</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.9349006844579463</v>
+        <v>0.9349006844579464</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9289430143539664</v>
+        <v>0.9290569905388614</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9410119684525042</v>
+        <v>0.94047524863412</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>121619</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>99941</v>
+        <v>100990</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>144261</v>
+        <v>145728</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03537681142639552</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0290710630407243</v>
+        <v>0.02937619288466177</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04196292753234666</v>
+        <v>0.04238945426289201</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>170</v>
@@ -2265,19 +2265,19 @@
         <v>103357</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>89053</v>
+        <v>89071</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>123453</v>
+        <v>122668</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02851143212100286</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02456555014017045</v>
+        <v>0.02457075055493475</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03405508933208654</v>
+        <v>0.0338383808759137</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>304</v>
@@ -2286,19 +2286,19 @@
         <v>224976</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>197502</v>
+        <v>200668</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>256685</v>
+        <v>254618</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03185310372721011</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02796314892142676</v>
+        <v>0.02841148345713217</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03634258536003482</v>
+        <v>0.03604999426870996</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>56162</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>40671</v>
+        <v>42178</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>73620</v>
+        <v>75569</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01633654766036398</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01183057112444718</v>
+        <v>0.01226879020257251</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0214146879863869</v>
+        <v>0.02198167366323147</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>50</v>
@@ -2336,19 +2336,19 @@
         <v>36558</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>27184</v>
+        <v>27355</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>49571</v>
+        <v>49651</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01008466490381103</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007498881550381684</v>
+        <v>0.007546073786651996</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01367439959745187</v>
+        <v>0.01369649528470201</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>109</v>
@@ -2357,19 +2357,19 @@
         <v>92720</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>74791</v>
+        <v>75729</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>114257</v>
+        <v>112119</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0131277216911468</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0105892944046241</v>
+        <v>0.0107220861707183</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01617697523697309</v>
+        <v>0.01587426946400891</v>
       </c>
     </row>
     <row r="27">
